--- a/ldas/data/properties/list.xlsx
+++ b/ldas/data/properties/list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7175,6 +7175,356 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Define an access to the resource.</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>195</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>curation:access</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>A set to group resources together.</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>196</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>curation:set</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>A subject to describe the resource.</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>197</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>curation:subject</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>A type that can be used for some purposes.</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>198</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>curation:type</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Start date related to the resource, for example an embargo.</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>199</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Date of start</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>dateStart</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>curation:dateStart</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>End date related to the resource, for example an embargo.</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Date of end</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>dateEnd</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>curation:dateEnd</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>A location related to the resource, for example the place of publication.</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>201</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>curation:location</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>A number related to the resource.</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>202</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>curation:number</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>A rank or a position related to the resource.</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>203</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>curation:rank</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>o:Property</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>The status of the resource, generally for internal purposes.</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>204</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>curation:status</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/vocabularies/5', 'o:id': 5}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
